--- a/analysis/performances_SSM.xlsx
+++ b/analysis/performances_SSM.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="78">
   <si>
     <t>method</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>PostFilter-WEBP</t>
+  </si>
+  <si>
+    <t>region (ori)</t>
+  </si>
+  <si>
+    <t>region (merge)</t>
+  </si>
+  <si>
+    <t>region (merge+bounding)</t>
   </si>
   <si>
     <t>region</t>
@@ -270,14 +279,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,28 +735,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,131 +768,137 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2077,22 +2088,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3702</c:v>
+                  <c:v>0.2574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.189</c:v>
+                  <c:v>0.1444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1639</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1437</c:v>
+                  <c:v>0.1132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1361</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1287</c:v>
+                  <c:v>0.1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,22 +2115,228 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9355</c:v>
+                  <c:v>0.9356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8842</c:v>
+                  <c:v>0.8845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8727</c:v>
+                  <c:v>0.8732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8501</c:v>
+                  <c:v>0.8494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8375</c:v>
+                  <c:v>0.8369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8172</c:v>
+                  <c:v>0.8178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"region (merge)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$164:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$164:$D$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ori!$A$170</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge+bounding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$170:$C$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$170:$D$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,6 +2518,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{39b22892-a278-4431-9e4a-3e6022cc8586}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3254,6 +3476,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{07c0411f-0126-4e1f-8b44-421779003caa}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3288,6 +3515,651 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"PNG"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLIF"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLIF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"region"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$158:$C$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$158:$D$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"region (merge)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$164:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$164:$D$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ori!$A$170</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge+bounding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ori!$C$170:$C$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ori!$D$170:$D$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="967281583"/>
+        <c:axId val="967282831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="967281583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967282831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="967282831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967281583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{39b22892-a278-4431-9e4a-3e6022cc8586}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4543,6 +5415,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{c52fc0e4-e8de-49c1-9fbe-df5744dedcd1}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4576,7 +5453,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5418,22 +6295,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1932</c:v>
+                  <c:v>0.1292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0798</c:v>
+                  <c:v>0.0592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0593</c:v>
+                  <c:v>0.0457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0493</c:v>
+                  <c:v>0.0384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0462</c:v>
+                  <c:v>0.0363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0432</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5445,22 +6322,228 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9737</c:v>
+                  <c:v>0.974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.942</c:v>
+                  <c:v>0.9462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9346</c:v>
+                  <c:v>0.9393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.919</c:v>
+                  <c:v>0.9263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9121</c:v>
+                  <c:v>0.9194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9008</c:v>
+                  <c:v>0.9092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ADE20k!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$99:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$99:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ADE20k!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge+bounding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$105:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$105:$D$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,6 +6726,657 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{afa39317-2646-42c9-8fd1-d71cdf641f85}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"PNG"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLIF"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLIF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"region"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$93:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$93:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ADE20k!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$99:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$99:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ADE20k!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>region (merge+bounding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ADE20k!$C$105:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ADE20k!$D$105:$D$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="967281583"/>
+        <c:axId val="967282831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="967281583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967282831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="967282831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967281583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{afa39317-2646-42c9-8fd1-d71cdf641f85}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5795,6 +7529,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7898,6 +9712,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7960,6 +10806,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8464550" y="1016000"/>
+        <a:ext cx="2900045" cy="2726690"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8002,16 +10878,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>454660</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8019,12 +10895,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6172200" y="889000"/>
+        <a:off x="3797300" y="882650"/>
         <a:ext cx="4569460" cy="2745740"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442595</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8699500" y="876300"/>
+        <a:ext cx="3401695" cy="2758440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8543,26 +11449,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S163"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.9166666666667" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.66666666666667" style="2"/>
+    <col min="1" max="1" width="16.9166666666667" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.66666666666667" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8570,1718 +11476,1718 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0.1152</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>0.0046</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.1197</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.0116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.1412</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.0645</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.1533</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.0255</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.1686</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.1156</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>0.183</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>0.0796</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>0.1948</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.1031</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>0.2059</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>0.1414</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>40</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>0.215</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>0.1004</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>45</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>0.2267</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>0.1415</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>50</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>0.2361</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>0.1635</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>55</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>0.2461</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>0.1503</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>60</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>0.2593</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>0.1659</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>65</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>0.2786</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>0.2145</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>70</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>0.3014</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>0.1647</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>75</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>0.3231</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <v>0.2527</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>80</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>0.3549</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>0.2602</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>85</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>0.3996</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <v>0.2708</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>90</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>0.4838</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>0.2868</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>95</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>0.6515</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="7">
         <v>0.3348</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>100</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>1.0446</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="7">
         <v>0.5983</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>0</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>8.0327</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>0.3348</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>0.3214</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>3</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>0.3056</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <v>0.2585</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="7">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <v>0.2538</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>6</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>0.248</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>7</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>0.2468</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>8</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>0.2238</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>0.2087</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>0</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>0.0358</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>0.0482</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>0.042</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>0.0546</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>0.0445</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>0.066</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>15</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>0.0481</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>0.077</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>20</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>0.0521</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>0.1276</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>25</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>0.0552</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>0.1704</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>30</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>0.0595</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>0.1804</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>0.0635</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>0.1849</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>0.0675</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>0.1897</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>45</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>0.0714</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>0.1977</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>50</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>0.0752</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>0.2034</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>55</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>0.0787</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>0.2079</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>60</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>0.0832</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>0.2104</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>65</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>0.0871</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>0.2159</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>70</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>0.0918</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>0.2195</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>75</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>0.0962</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>0.2241</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>80</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>0.1126</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>0.2408</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>85</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>0.1337</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>0.2623</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>90</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>0.1682</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>0.3023</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>95</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>0.2256</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>0.3545</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>0</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>0.5118</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>0.7448</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>3</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>0.5118</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>0.7448</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>6</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>0.4303</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>0.663</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>9</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>0.3583</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>0.5951</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>12</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>0.2925</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>0.5193</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>15</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>0.2348</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>0.4562</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>18</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>0.1845</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>0.4027</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>21</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>0.148</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>0.3454</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>24</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>0.117</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>0.3035</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>27</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>0.0874</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>0.2544</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>30</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>0.064</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>0.2195</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>33</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>0.0461</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>0.1796</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>36</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>0.0327</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>0.1494</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>39</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>0.0236</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>0.1185</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>42</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>0.0166</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>0.0944</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>45</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>0.0111</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>0.0697</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>48</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>0.008</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>0.0535</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>51</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>0.0063</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>0.0471</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>10</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>0.1401</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>0.2633</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>15</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>0.1401</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>0.2633</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>20</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>0.1454</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>0.2717</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>25</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>0.1454</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>0.2717</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>30</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>0.1497</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>0.2836</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>35</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>0.1455</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>0.2868</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>40</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>0.1466</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>0.2875</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>45</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <v>0.1546</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>0.293</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>50</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <v>0.1566</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>0.2945</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>55</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <v>0.1606</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>0.3104</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>60</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <v>0.1606</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>0.3104</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>65</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>0.1666</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>0.3535</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>70</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>0.1666</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>0.3535</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>75</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <v>0.1691</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>0.4465</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>80</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>0.1691</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>0.4465</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>85</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="3">
         <v>0.1639</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>0.6135</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>90</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>0.1543</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>0.6573</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>95</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <v>0.1543</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>0.6573</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>100</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="3">
         <v>0.1112</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>1.8941</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>2</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <v>2.0808</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>0.5517</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>3</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>2.0808</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>0.5517</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>4</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <v>2.0808</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>0.5517</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>5</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>2.0808</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>0.5517</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>10</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="3">
         <v>1.7276</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>0.4617</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>20</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <v>0.8963</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>0.2716</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>50</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <v>0.3579</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>0.1653</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>100</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>0.1785</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>0.1141</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>150</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="3">
         <v>0.118</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>0.0971</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>200</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>0.0885</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>0.0861</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="3">
         <v>0.0209</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>0.0952</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>2</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>0.0266</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>0.1009</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>3</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="3">
         <v>0.034</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>0.1139</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>4</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="3">
         <v>0.0468</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>0.1464</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>5</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <v>0.0635</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>0.1604</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>6</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>0.0875</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>0.163</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>1</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <v>0.0196</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>0.1043</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>2</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>0.0241</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>0.1282</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>3</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>0.0314</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>0.1324</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>4</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>0.0469</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>0.1293</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>5</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <v>0.062</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>0.0908</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>6</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="3">
         <v>0.0842</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>0.1423</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="3">
         <v>0.1462</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <v>0.1711</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="3">
         <v>0.1091</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>0.1637</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="3">
         <v>0.061</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <v>0.1318</v>
       </c>
     </row>
@@ -10289,7 +13195,7 @@
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="6">
         <v>0</v>
       </c>
       <c r="C116">
@@ -10303,7 +13209,7 @@
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>5</v>
       </c>
       <c r="C117">
@@ -10317,7 +13223,7 @@
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>10</v>
       </c>
       <c r="C118">
@@ -10331,7 +13237,7 @@
       <c r="A119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>15</v>
       </c>
       <c r="C119">
@@ -10345,7 +13251,7 @@
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>20</v>
       </c>
       <c r="C120">
@@ -10359,7 +13265,7 @@
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="6">
         <v>25</v>
       </c>
       <c r="C121">
@@ -10373,7 +13279,7 @@
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>30</v>
       </c>
       <c r="C122">
@@ -10387,7 +13293,7 @@
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="7">
         <v>35</v>
       </c>
       <c r="C123">
@@ -10401,7 +13307,7 @@
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="7">
         <v>40</v>
       </c>
       <c r="C124">
@@ -10415,7 +13321,7 @@
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="7">
         <v>45</v>
       </c>
       <c r="C125">
@@ -10429,7 +13335,7 @@
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="7">
         <v>50</v>
       </c>
       <c r="C126">
@@ -10443,7 +13349,7 @@
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="7">
         <v>55</v>
       </c>
       <c r="C127">
@@ -10457,7 +13363,7 @@
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="7">
         <v>60</v>
       </c>
       <c r="C128">
@@ -10471,7 +13377,7 @@
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="7">
         <v>65</v>
       </c>
       <c r="C129">
@@ -10485,7 +13391,7 @@
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="7">
         <v>70</v>
       </c>
       <c r="C130">
@@ -10499,7 +13405,7 @@
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="7">
         <v>75</v>
       </c>
       <c r="C131">
@@ -10513,7 +13419,7 @@
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="7">
         <v>80</v>
       </c>
       <c r="C132">
@@ -10527,7 +13433,7 @@
       <c r="A133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="7">
         <v>85</v>
       </c>
       <c r="C133">
@@ -10541,7 +13447,7 @@
       <c r="A134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="7">
         <v>90</v>
       </c>
       <c r="C134">
@@ -10555,7 +13461,7 @@
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="7">
         <v>95</v>
       </c>
       <c r="C135">
@@ -10569,7 +13475,7 @@
       <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="7">
         <v>100</v>
       </c>
       <c r="C136">
@@ -10583,7 +13489,7 @@
       <c r="A137" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="6">
         <v>0</v>
       </c>
       <c r="C137">
@@ -10597,7 +13503,7 @@
       <c r="A138" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>5</v>
       </c>
       <c r="C138">
@@ -10611,7 +13517,7 @@
       <c r="A139" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>10</v>
       </c>
       <c r="C139">
@@ -10625,7 +13531,7 @@
       <c r="A140" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>15</v>
       </c>
       <c r="C140">
@@ -10639,7 +13545,7 @@
       <c r="A141" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>20</v>
       </c>
       <c r="C141">
@@ -10653,7 +13559,7 @@
       <c r="A142" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="6">
         <v>25</v>
       </c>
       <c r="C142">
@@ -10667,7 +13573,7 @@
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>30</v>
       </c>
       <c r="C143">
@@ -10681,7 +13587,7 @@
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="7">
         <v>35</v>
       </c>
       <c r="C144">
@@ -10695,7 +13601,7 @@
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="7">
         <v>40</v>
       </c>
       <c r="C145">
@@ -10709,7 +13615,7 @@
       <c r="A146" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="7">
         <v>45</v>
       </c>
       <c r="C146">
@@ -10723,7 +13629,7 @@
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="7">
         <v>50</v>
       </c>
       <c r="C147">
@@ -10737,7 +13643,7 @@
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="7">
         <v>55</v>
       </c>
       <c r="C148">
@@ -10751,7 +13657,7 @@
       <c r="A149" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="7">
         <v>60</v>
       </c>
       <c r="C149">
@@ -10765,7 +13671,7 @@
       <c r="A150" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="7">
         <v>65</v>
       </c>
       <c r="C150">
@@ -10779,7 +13685,7 @@
       <c r="A151" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="7">
         <v>70</v>
       </c>
       <c r="C151">
@@ -10793,7 +13699,7 @@
       <c r="A152" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="7">
         <v>75</v>
       </c>
       <c r="C152">
@@ -10807,7 +13713,7 @@
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="7">
         <v>80</v>
       </c>
       <c r="C153">
@@ -10821,7 +13727,7 @@
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="7">
         <v>85</v>
       </c>
       <c r="C154">
@@ -10835,7 +13741,7 @@
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="7">
         <v>90</v>
       </c>
       <c r="C155">
@@ -10849,7 +13755,7 @@
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="7">
         <v>95</v>
       </c>
       <c r="C156">
@@ -10863,7 +13769,7 @@
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="7">
         <v>100</v>
       </c>
       <c r="C157">
@@ -10877,84 +13783,252 @@
       <c r="A158" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>0.5</v>
       </c>
-      <c r="C158" s="5">
-        <v>0.3702</v>
-      </c>
-      <c r="D158" s="5">
-        <v>0.9355</v>
+      <c r="C158" s="2">
+        <v>0.2574</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.9356</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>1</v>
       </c>
-      <c r="C159" s="5">
-        <v>0.189</v>
-      </c>
-      <c r="D159" s="5">
-        <v>0.8842</v>
+      <c r="C159" s="2">
+        <v>0.1444</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.8845</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>1.5</v>
       </c>
-      <c r="C160" s="5">
-        <v>0.1639</v>
-      </c>
-      <c r="D160" s="5">
-        <v>0.8727</v>
+      <c r="C160" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.8732</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>2</v>
       </c>
-      <c r="C161" s="5">
-        <v>0.1437</v>
-      </c>
-      <c r="D161" s="5">
-        <v>0.8501</v>
+      <c r="C161" s="2">
+        <v>0.1132</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.8494</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>2.5</v>
       </c>
-      <c r="C162" s="5">
-        <v>0.1361</v>
-      </c>
-      <c r="D162" s="5">
-        <v>0.8375</v>
+      <c r="C162" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.8369</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>3</v>
       </c>
-      <c r="C163" s="5">
-        <v>0.1287</v>
-      </c>
-      <c r="D163" s="5">
-        <v>0.8172</v>
+      <c r="C163" s="2">
+        <v>0.1024</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.8178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C164" s="8">
+        <v>0.2341</v>
+      </c>
+      <c r="D164" s="8">
+        <v>0.9122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1</v>
+      </c>
+      <c r="C165" s="8">
+        <v>0.1227</v>
+      </c>
+      <c r="D165" s="8">
+        <v>0.8675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C166" s="8">
+        <v>0.1066</v>
+      </c>
+      <c r="D166" s="8">
+        <v>0.8572</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="4">
+        <v>2</v>
+      </c>
+      <c r="C167" s="8">
+        <v>0.0925</v>
+      </c>
+      <c r="D167" s="8">
+        <v>0.8347</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C168" s="8">
+        <v>0.0876</v>
+      </c>
+      <c r="D168" s="8">
+        <v>0.8224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="4">
+        <v>3</v>
+      </c>
+      <c r="C169" s="8">
+        <v>0.0822</v>
+      </c>
+      <c r="D169" s="8">
+        <v>0.8041</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.2128</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.9122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.1281</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.8675</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.1147</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.8572</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.0999</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.8347</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.0955</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.8224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="4">
+        <v>3</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.0895</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.8041</v>
       </c>
     </row>
   </sheetData>
@@ -12254,10 +15328,10 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>1</v>
       </c>
       <c r="C92">
@@ -12268,10 +15342,10 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>2</v>
       </c>
       <c r="C93">
@@ -12282,10 +15356,10 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>3</v>
       </c>
       <c r="C94">
@@ -12296,10 +15370,10 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>4</v>
       </c>
       <c r="C95">
@@ -12310,10 +15384,10 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>5</v>
       </c>
       <c r="C96">
@@ -12324,10 +15398,10 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>6</v>
       </c>
       <c r="C97">
@@ -12338,10 +15412,10 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98">
@@ -12352,10 +15426,10 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>2</v>
       </c>
       <c r="C99">
@@ -12366,10 +15440,10 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>3</v>
       </c>
       <c r="C100">
@@ -12380,10 +15454,10 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>4</v>
       </c>
       <c r="C101">
@@ -12394,10 +15468,10 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>5</v>
       </c>
       <c r="C102">
@@ -12408,10 +15482,10 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>6</v>
       </c>
       <c r="C103">
@@ -12422,10 +15496,10 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C104">
@@ -12436,10 +15510,10 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C105">
@@ -12450,10 +15524,10 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C106">
@@ -12473,10 +15547,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -13771,86 +16845,254 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B93">
         <v>0.5</v>
       </c>
-      <c r="C93">
-        <v>0.1932</v>
-      </c>
-      <c r="D93">
-        <v>0.9737</v>
+      <c r="C93" s="2">
+        <v>0.1292</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.974</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94">
-        <v>0.0798</v>
-      </c>
-      <c r="D94">
-        <v>0.942</v>
+      <c r="C94" s="2">
+        <v>0.0592</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.9462</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B95">
         <v>1.5</v>
       </c>
-      <c r="C95">
-        <v>0.0593</v>
-      </c>
-      <c r="D95">
-        <v>0.9346</v>
+      <c r="C95" s="2">
+        <v>0.0457</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.9393</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96">
-        <v>0.0493</v>
-      </c>
-      <c r="D96">
-        <v>0.919</v>
+      <c r="C96" s="2">
+        <v>0.0384</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.9263</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B97">
         <v>2.5</v>
       </c>
-      <c r="C97">
-        <v>0.0462</v>
-      </c>
-      <c r="D97">
-        <v>0.9121</v>
+      <c r="C97" s="2">
+        <v>0.0363</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.9194</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
-      <c r="C98">
-        <v>0.0432</v>
-      </c>
-      <c r="D98">
-        <v>0.9008</v>
+      <c r="C98" s="2">
+        <v>0.034</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.9092</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.1282</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0.9711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.0576</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.0438</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="4">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.0362</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.9247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.034</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="4">
+        <v>3</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.0317</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0.9078</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.1052</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0.9711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.0531</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.0422</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.0351</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0.9247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.0332</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="4">
+        <v>3</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.0311</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.9078</v>
       </c>
     </row>
   </sheetData>
@@ -13873,7 +17115,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:4">
@@ -13892,12 +17134,12 @@
     </row>
     <row r="3" hidden="1" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -13911,12 +17153,12 @@
     </row>
     <row r="5" hidden="1" spans="1:1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13930,12 +17172,12 @@
     </row>
     <row r="7" hidden="1" spans="1:1">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -13949,12 +17191,12 @@
     </row>
     <row r="9" hidden="1" spans="1:1">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -13968,12 +17210,12 @@
     </row>
     <row r="11" hidden="1" spans="1:1">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -13987,12 +17229,12 @@
     </row>
     <row r="13" hidden="1" spans="1:1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -14006,12 +17248,12 @@
     </row>
     <row r="15" hidden="1" spans="1:1">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -14025,12 +17267,12 @@
     </row>
     <row r="17" hidden="1" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>35</v>
@@ -14044,12 +17286,12 @@
     </row>
     <row r="19" hidden="1" spans="1:1">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>40</v>
@@ -14063,12 +17305,12 @@
     </row>
     <row r="21" hidden="1" spans="1:1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>45</v>
@@ -14082,12 +17324,12 @@
     </row>
     <row r="23" hidden="1" spans="1:1">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -14101,12 +17343,12 @@
     </row>
     <row r="25" hidden="1" spans="1:1">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>55</v>
@@ -14120,12 +17362,12 @@
     </row>
     <row r="27" hidden="1" spans="1:1">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>60</v>
@@ -14139,12 +17381,12 @@
     </row>
     <row r="29" hidden="1" spans="1:1">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>65</v>
@@ -14158,12 +17400,12 @@
     </row>
     <row r="31" hidden="1" spans="1:1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>70</v>
@@ -14177,12 +17419,12 @@
     </row>
     <row r="33" hidden="1" spans="1:1">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>75</v>
@@ -14196,12 +17438,12 @@
     </row>
     <row r="35" hidden="1" spans="1:1">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>80</v>
@@ -14215,12 +17457,12 @@
     </row>
     <row r="37" hidden="1" spans="1:1">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>85</v>
@@ -14234,12 +17476,12 @@
     </row>
     <row r="39" hidden="1" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>90</v>
@@ -14253,12 +17495,12 @@
     </row>
     <row r="41" hidden="1" spans="1:1">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>95</v>
@@ -14272,12 +17514,12 @@
     </row>
     <row r="43" hidden="1" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -14291,12 +17533,12 @@
     </row>
     <row r="45" hidden="1" spans="1:1">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -14310,12 +17552,12 @@
     </row>
     <row r="47" hidden="1" spans="1:1">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -14329,12 +17571,12 @@
     </row>
     <row r="49" hidden="1" spans="1:1">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -14348,12 +17590,12 @@
     </row>
     <row r="51" hidden="1" spans="1:1">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -14367,12 +17609,12 @@
     </row>
     <row r="53" hidden="1" spans="1:1">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>20</v>
@@ -14386,12 +17628,12 @@
     </row>
     <row r="55" hidden="1" spans="1:1">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>25</v>
@@ -14405,12 +17647,12 @@
     </row>
     <row r="57" hidden="1" spans="1:1">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B58">
         <v>30</v>
@@ -14424,12 +17666,12 @@
     </row>
     <row r="59" hidden="1" spans="1:1">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>35</v>
@@ -14443,12 +17685,12 @@
     </row>
     <row r="61" hidden="1" spans="1:1">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B62">
         <v>40</v>
@@ -14462,12 +17704,12 @@
     </row>
     <row r="63" hidden="1" spans="1:1">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B64">
         <v>45</v>
@@ -14481,12 +17723,12 @@
     </row>
     <row r="65" hidden="1" spans="1:1">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B66">
         <v>50</v>
@@ -14500,12 +17742,12 @@
     </row>
     <row r="67" hidden="1" spans="1:1">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>55</v>
@@ -14519,12 +17761,12 @@
     </row>
     <row r="69" hidden="1" spans="1:1">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B70">
         <v>60</v>
@@ -14538,12 +17780,12 @@
     </row>
     <row r="71" hidden="1" spans="1:1">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B72">
         <v>65</v>
@@ -14557,12 +17799,12 @@
     </row>
     <row r="73" hidden="1" spans="1:1">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -14576,12 +17818,12 @@
     </row>
     <row r="75" hidden="1" spans="1:1">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -14595,12 +17837,12 @@
     </row>
     <row r="77" hidden="1" spans="1:1">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B78">
         <v>80</v>
@@ -14614,12 +17856,12 @@
     </row>
     <row r="79" hidden="1" spans="1:1">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B80">
         <v>85</v>
@@ -14633,12 +17875,12 @@
     </row>
     <row r="81" hidden="1" spans="1:1">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B82">
         <v>90</v>
@@ -14652,12 +17894,12 @@
     </row>
     <row r="83" hidden="1" spans="1:1">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B84">
         <v>95</v>
@@ -14671,12 +17913,12 @@
     </row>
     <row r="85" hidden="1" spans="1:1">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -14691,7 +17933,7 @@
     <row r="87" hidden="1"/>
     <row r="88" hidden="1" spans="1:1">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -14710,16 +17952,16 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -14738,16 +17980,16 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -14766,16 +18008,16 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -14794,16 +18036,16 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -14822,16 +18064,16 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -14850,16 +18092,16 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -14878,16 +18120,16 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -14906,16 +18148,16 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -14934,16 +18176,16 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C112" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -14962,16 +18204,16 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -14990,16 +18232,16 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -15017,7 +18259,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B88">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B88" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
       <filters>
         <filter val="10"/>
